--- a/data/trans_bre/P2A_psíq_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P2A_psíq_R-Clase-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad psíquica</t>
+          <t>Hogares con personas con limitación por discapacidad psíquica</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 3,31</t>
+          <t>-0,04; 3,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 4,28</t>
+          <t>-0,66; 3,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 2,31</t>
+          <t>-0,16; 2,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 2,4</t>
+          <t>-1,47; 2,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-40,32; 881,01</t>
+          <t>-53,19; 764,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-51,23; 167,28</t>
+          <t>-54,79; 181,93</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 1,11</t>
+          <t>-1,71; 1,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,47; -0,16</t>
+          <t>-4,42; -0,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 2,57</t>
+          <t>-1,38; 2,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 2,32</t>
+          <t>-1,05; 2,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 32,05</t>
+          <t>-100,0; 60,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 982,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-46,57; 294,79</t>
+          <t>-45,01; 266,44</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 3,29</t>
+          <t>-0,7; 3,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 0,29</t>
+          <t>-3,4; 0,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 2,0</t>
+          <t>-1,08; 2,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 3,35</t>
+          <t>-1,14; 3,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 46,59</t>
+          <t>-100,0; 63,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-55,42; 670,94</t>
+          <t>-62,24; 638,45</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 1,71</t>
+          <t>-0,47; 1,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,01; 2,78</t>
+          <t>0,05; 2,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,09; 1,92</t>
+          <t>0,05; 1,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,09; 56,46</t>
+          <t>0,05; 57,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,05; 299,53</t>
+          <t>-40,12; 273,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 356,31</t>
+          <t>-4,98; 332,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 628,65</t>
+          <t>-4,02; 602,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,29; 4012,4</t>
+          <t>-0,2; 4794,9</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 0,68</t>
+          <t>-1,56; 0,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,06; 3,09</t>
+          <t>-0,37; 3,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 2,72</t>
+          <t>-0,66; 2,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 1,68</t>
+          <t>-2,06; 1,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 394,6</t>
+          <t>-21,91; 448,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-26,66; 274,39</t>
+          <t>-28,27; 253,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-48,08; 106,34</t>
+          <t>-48,52; 96,98</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 0,51</t>
+          <t>-3,37; 0,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 0,05</t>
+          <t>-6,2; 0,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 0,97</t>
+          <t>-2,74; 0,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 2,79</t>
+          <t>-4,34; 2,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-79,82; 76,99</t>
+          <t>-80,82; 72,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-81,56; 4,0</t>
+          <t>-80,37; 7,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-74,83; 187,02</t>
+          <t>-75,01; 152,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-60,89; 219,96</t>
+          <t>-61,85; 210,45</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 0,72</t>
+          <t>-0,21; 0,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 0,92</t>
+          <t>-0,49; 0,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,29</t>
+          <t>0,13; 1,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,43; 24,37</t>
+          <t>0,55; 22,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-25,7; 103,51</t>
+          <t>-19,65; 117,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-23,32; 62,59</t>
+          <t>-23,68; 64,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,96; 183,25</t>
+          <t>8,29; 185,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>19,59; 1189,38</t>
+          <t>25,31; 1165,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_psíq_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P2A_psíq_R-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
